--- a/biology/Zoologie/Austrodomus_zuluensis/Austrodomus_zuluensis.xlsx
+++ b/biology/Zoologie/Austrodomus_zuluensis/Austrodomus_zuluensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrodomus zuluensis est une espèce d'araignées aranéomorphes de la famille des Prodidomidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrodomus zuluensis est une espèce d'araignées aranéomorphes de la famille des Prodidomidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud au KwaZulu-Natal et au Mozambique vers Maputo[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud au KwaZulu-Natal et au Mozambique vers Maputo,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 3,2 mm[3].
-Les femelles mesurent de 2,95 à 3,90 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 3,2 mm.
+Les femelles mesurent de 2,95 à 3,90 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Lawrence en 1947.
 </t>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de zulu et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Zoulouland.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lawrence, 1947 : « A collection of Arachnida made by Dr. I. Trägårdh in Natal and Zululand (1904-1905). » Göteborgs Konglige Veternskaps- och Vitterhets-Samhälles Handlingar, sér. B, vol. 5, no 9, p. 1-41.</t>
         </is>
